--- a/output/IBIUNA_12154412000165.xlsx
+++ b/output/IBIUNA_12154412000165.xlsx
@@ -1736,10 +1736,10 @@
         <v>44165</v>
       </c>
       <c r="B123">
-        <v>1.883966964</v>
+        <v>1.884496844</v>
       </c>
       <c r="C123">
-        <v>-0.002717982533020358</v>
+        <v>-0.002534748882284332</v>
       </c>
     </row>
   </sheetData>

--- a/output/IBIUNA_12154412000165.xlsx
+++ b/output/IBIUNA_12154412000165.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>IBIUNA HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40482</v>
       </c>
@@ -411,1335 +405,972 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40512</v>
       </c>
       <c r="B3">
         <v>0.02065648799999997</v>
       </c>
-      <c r="C3">
-        <v>0.02065648799999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>0.01821060100000005</v>
-      </c>
-      <c r="C4">
         <v>-0.002396386079701163</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40574</v>
       </c>
       <c r="B5">
-        <v>0.03553723099999995</v>
-      </c>
-      <c r="C5">
         <v>0.01701674484923177</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40602</v>
       </c>
       <c r="B6">
-        <v>0.04060085899999999</v>
-      </c>
-      <c r="C6">
         <v>0.004889856055788622</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40633</v>
       </c>
       <c r="B7">
-        <v>0.05476300599999995</v>
-      </c>
-      <c r="C7">
         <v>0.01360958611317065</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40663</v>
       </c>
       <c r="B8">
-        <v>0.08002036099999987</v>
-      </c>
-      <c r="C8">
         <v>0.02394600005529579</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40694</v>
       </c>
       <c r="B9">
-        <v>0.08069276400000014</v>
-      </c>
-      <c r="C9">
         <v>0.000622583632939655</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40724</v>
       </c>
       <c r="B10">
-        <v>0.09016769700000005</v>
-      </c>
-      <c r="C10">
         <v>0.008767462238693957</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40755</v>
       </c>
       <c r="B11">
-        <v>0.09900714099999997</v>
-      </c>
-      <c r="C11">
         <v>0.0081083341804431</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40786</v>
       </c>
       <c r="B12">
-        <v>0.14570587</v>
-      </c>
-      <c r="C12">
         <v>0.04249174300861069</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40816</v>
       </c>
       <c r="B13">
-        <v>0.1610630399999999</v>
-      </c>
-      <c r="C13">
         <v>0.01340411217409576</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40847</v>
       </c>
       <c r="B14">
-        <v>0.1633721079999999</v>
-      </c>
-      <c r="C14">
         <v>0.001988753341076066</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40877</v>
       </c>
       <c r="B15">
-        <v>0.173512519</v>
-      </c>
-      <c r="C15">
         <v>0.008716395150157874</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40908</v>
       </c>
       <c r="B16">
-        <v>0.1703389930000001</v>
-      </c>
-      <c r="C16">
         <v>-0.00270429667227079</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40939</v>
       </c>
       <c r="B17">
-        <v>0.176829232</v>
-      </c>
-      <c r="C17">
         <v>0.005545606049887297</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40968</v>
       </c>
       <c r="B18">
-        <v>0.1872858589999999</v>
-      </c>
-      <c r="C18">
         <v>0.008885424253295415</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40999</v>
       </c>
       <c r="B19">
-        <v>0.19556887</v>
-      </c>
-      <c r="C19">
         <v>0.00697642521151276</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41029</v>
       </c>
       <c r="B20">
-        <v>0.222747225</v>
-      </c>
-      <c r="C20">
         <v>0.02273257165018028</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41060</v>
       </c>
       <c r="B21">
-        <v>0.2482770460000001</v>
-      </c>
-      <c r="C21">
         <v>0.02087906680794149</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41090</v>
       </c>
       <c r="B22">
-        <v>0.2645344280000002</v>
-      </c>
-      <c r="C22">
         <v>0.01302385720549415</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41121</v>
       </c>
       <c r="B23">
-        <v>0.2824789050000001</v>
-      </c>
-      <c r="C23">
         <v>0.01419058002903184</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41152</v>
       </c>
       <c r="B24">
-        <v>0.2870705490000001</v>
-      </c>
-      <c r="C24">
         <v>0.003580288129573672</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41182</v>
       </c>
       <c r="B25">
-        <v>0.2972649759999999</v>
-      </c>
-      <c r="C25">
         <v>0.007920643517109749</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41213</v>
       </c>
       <c r="B26">
-        <v>0.3248817049999999</v>
-      </c>
-      <c r="C26">
         <v>0.02128842565776634</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41243</v>
       </c>
       <c r="B27">
-        <v>0.340503094</v>
-      </c>
-      <c r="C27">
         <v>0.01179078021912905</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41274</v>
       </c>
       <c r="B28">
-        <v>0.362476901</v>
-      </c>
-      <c r="C28">
         <v>0.01639220908803063</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41305</v>
       </c>
       <c r="B29">
-        <v>0.3805594880000001</v>
-      </c>
-      <c r="C29">
         <v>0.01327184848912166</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41333</v>
       </c>
       <c r="B30">
-        <v>0.3744481959999999</v>
-      </c>
-      <c r="C30">
         <v>-0.004426677773120447</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41364</v>
       </c>
       <c r="B31">
-        <v>0.383979173</v>
-      </c>
-      <c r="C31">
         <v>0.006934402495297975</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41394</v>
       </c>
       <c r="B32">
-        <v>0.3902706929999999</v>
-      </c>
-      <c r="C32">
         <v>0.004545964363294575</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41425</v>
       </c>
       <c r="B33">
-        <v>0.414312641</v>
-      </c>
-      <c r="C33">
         <v>0.01729299777449889</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41455</v>
       </c>
       <c r="B34">
-        <v>0.4243740220000001</v>
-      </c>
-      <c r="C34">
         <v>0.007113972334211738</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41486</v>
       </c>
       <c r="B35">
-        <v>0.4363980490000001</v>
-      </c>
-      <c r="C35">
         <v>0.008441621943593658</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41517</v>
       </c>
       <c r="B36">
-        <v>0.433267099</v>
-      </c>
-      <c r="C36">
         <v>-0.002179723094291153</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41547</v>
       </c>
       <c r="B37">
-        <v>0.415630664</v>
-      </c>
-      <c r="C37">
         <v>-0.01230505815162086</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41578</v>
       </c>
       <c r="B38">
-        <v>0.4215372300000002</v>
-      </c>
-      <c r="C38">
         <v>0.004172391959432753</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41608</v>
       </c>
       <c r="B39">
-        <v>0.441090609</v>
-      </c>
-      <c r="C39">
         <v>0.01375509454648594</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41639</v>
       </c>
       <c r="B40">
-        <v>0.460950347</v>
-      </c>
-      <c r="C40">
         <v>0.0137810474067146</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41670</v>
       </c>
       <c r="B41">
-        <v>0.4613946859999998</v>
-      </c>
-      <c r="C41">
         <v>0.0003041438067434843</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41698</v>
       </c>
       <c r="B42">
-        <v>0.471200093</v>
-      </c>
-      <c r="C42">
         <v>0.006709622728161557</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41729</v>
       </c>
       <c r="B43">
-        <v>0.479609615</v>
-      </c>
-      <c r="C43">
         <v>0.005716096702285789</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41759</v>
       </c>
       <c r="B44">
-        <v>0.4872663429999999</v>
-      </c>
-      <c r="C44">
         <v>0.00517482984861517</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41790</v>
       </c>
       <c r="B45">
-        <v>0.4992587639999999</v>
-      </c>
-      <c r="C45">
         <v>0.008063398366031649</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41820</v>
       </c>
       <c r="B46">
-        <v>0.5194514899999998</v>
-      </c>
-      <c r="C46">
         <v>0.01346847287797481</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41851</v>
       </c>
       <c r="B47">
-        <v>0.534981527</v>
-      </c>
-      <c r="C47">
         <v>0.01022081790844154</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41882</v>
       </c>
       <c r="B48">
-        <v>0.550498532</v>
-      </c>
-      <c r="C48">
         <v>0.0101089197016766</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41912</v>
       </c>
       <c r="B49">
-        <v>0.5418269280000001</v>
-      </c>
-      <c r="C49">
         <v>-0.005592784398714912</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41943</v>
       </c>
       <c r="B50">
-        <v>0.542347441</v>
-      </c>
-      <c r="C50">
         <v>0.0003375949599446759</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41973</v>
       </c>
       <c r="B51">
-        <v>0.5573881170000001</v>
-      </c>
-      <c r="C51">
         <v>0.009751807926136502</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42004</v>
       </c>
       <c r="B52">
-        <v>0.5717119589999999</v>
-      </c>
-      <c r="C52">
         <v>0.009197348973993602</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42035</v>
       </c>
       <c r="B53">
-        <v>0.6070344600000002</v>
-      </c>
-      <c r="C53">
         <v>0.02247390229344193</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42063</v>
       </c>
       <c r="B54">
-        <v>0.6299969839999999</v>
-      </c>
-      <c r="C54">
         <v>0.01428875644645466</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42094</v>
       </c>
       <c r="B55">
-        <v>0.676050764</v>
-      </c>
-      <c r="C55">
         <v>0.02825390503912728</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42124</v>
       </c>
       <c r="B56">
-        <v>0.6563869969999998</v>
-      </c>
-      <c r="C56">
         <v>-0.01173220252176099</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42155</v>
       </c>
       <c r="B57">
-        <v>0.6754215239999999</v>
-      </c>
-      <c r="C57">
         <v>0.01149159407461831</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42185</v>
       </c>
       <c r="B58">
-        <v>0.6745613050000001</v>
-      </c>
-      <c r="C58">
         <v>-0.0005134343731875157</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42216</v>
       </c>
       <c r="B59">
-        <v>0.7103872709999999</v>
-      </c>
-      <c r="C59">
         <v>0.02139423972895393</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42247</v>
       </c>
       <c r="B60">
-        <v>0.7232893739999999</v>
-      </c>
-      <c r="C60">
         <v>0.007543381091965617</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42277</v>
       </c>
       <c r="B61">
-        <v>0.7465521079999999</v>
-      </c>
-      <c r="C61">
         <v>0.01349902944390813</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42308</v>
       </c>
       <c r="B62">
-        <v>0.7522793169999999</v>
-      </c>
-      <c r="C62">
         <v>0.003279151520167556</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42338</v>
       </c>
       <c r="B63">
-        <v>0.7716923360000001</v>
-      </c>
-      <c r="C63">
         <v>0.01107872404339982</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42369</v>
       </c>
       <c r="B64">
-        <v>0.7839260799999999</v>
-      </c>
-      <c r="C64">
         <v>0.006905117638889902</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42400</v>
       </c>
       <c r="B65">
-        <v>0.8088279969999999</v>
-      </c>
-      <c r="C65">
         <v>0.01395905204771708</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42429</v>
       </c>
       <c r="B66">
-        <v>0.821852864</v>
-      </c>
-      <c r="C66">
         <v>0.007200721694711865</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42460</v>
       </c>
       <c r="B67">
-        <v>0.8234050780000002</v>
-      </c>
-      <c r="C67">
         <v>0.0008519974530720731</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42490</v>
       </c>
       <c r="B68">
-        <v>0.8653842040000002</v>
-      </c>
-      <c r="C68">
         <v>0.02302238076798857</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42521</v>
       </c>
       <c r="B69">
-        <v>0.8670979170000002</v>
-      </c>
-      <c r="C69">
         <v>0.0009186917077592671</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42551</v>
       </c>
       <c r="B70">
-        <v>0.909057319</v>
-      </c>
-      <c r="C70">
         <v>0.02247305918878584</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42582</v>
       </c>
       <c r="B71">
-        <v>0.9400593449999999</v>
-      </c>
-      <c r="C71">
         <v>0.01623944220608275</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42613</v>
       </c>
       <c r="B72">
-        <v>0.9612193790000001</v>
-      </c>
-      <c r="C72">
         <v>0.01090690037628739</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42643</v>
       </c>
       <c r="B73">
-        <v>0.9912671710000001</v>
-      </c>
-      <c r="C73">
         <v>0.0153209744517826</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42674</v>
       </c>
       <c r="B74">
-        <v>1.010763841</v>
-      </c>
-      <c r="C74">
         <v>0.009791086944003213</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42704</v>
       </c>
       <c r="B75">
-        <v>0.9872352960000002</v>
-      </c>
-      <c r="C75">
         <v>-0.01170129704953249</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42735</v>
       </c>
       <c r="B76">
-        <v>1.021387995</v>
-      </c>
-      <c r="C76">
         <v>0.01718603683657594</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42766</v>
       </c>
       <c r="B77">
-        <v>1.051392564</v>
-      </c>
-      <c r="C77">
         <v>0.01484354763866103</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42794</v>
       </c>
       <c r="B78">
-        <v>1.092712193</v>
-      </c>
-      <c r="C78">
         <v>0.02014223397565185</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42825</v>
       </c>
       <c r="B79">
-        <v>1.124044507</v>
-      </c>
-      <c r="C79">
         <v>0.01497210849385056</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42855</v>
       </c>
       <c r="B80">
-        <v>1.136599912</v>
-      </c>
-      <c r="C80">
         <v>0.005911083764309932</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42886</v>
       </c>
       <c r="B81">
-        <v>1.108270871</v>
-      </c>
-      <c r="C81">
         <v>-0.0132589357702827</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42916</v>
       </c>
       <c r="B82">
-        <v>1.148884429</v>
-      </c>
-      <c r="C82">
         <v>0.01926391838859676</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42947</v>
       </c>
       <c r="B83">
-        <v>1.212631462</v>
-      </c>
-      <c r="C83">
         <v>0.02966517516703537</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42978</v>
       </c>
       <c r="B84">
-        <v>1.232929925</v>
-      </c>
-      <c r="C84">
         <v>0.009173901460142853</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43008</v>
       </c>
       <c r="B85">
-        <v>1.277501633</v>
-      </c>
-      <c r="C85">
         <v>0.01996108677705144</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43039</v>
       </c>
       <c r="B86">
-        <v>1.26865116</v>
-      </c>
-      <c r="C86">
         <v>-0.003886044634067609</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43069</v>
       </c>
       <c r="B87">
-        <v>1.273353936</v>
-      </c>
-      <c r="C87">
         <v>0.002072939234959215</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43100</v>
       </c>
       <c r="B88">
-        <v>1.306827491</v>
-      </c>
-      <c r="C88">
         <v>0.01472430424049898</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43131</v>
       </c>
       <c r="B89">
-        <v>1.372409977</v>
-      </c>
-      <c r="C89">
         <v>0.0284297314193922</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43159</v>
       </c>
       <c r="B90">
-        <v>1.396052793</v>
-      </c>
-      <c r="C90">
         <v>0.00996573789067301</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43190</v>
       </c>
       <c r="B91">
-        <v>1.41994054</v>
-      </c>
-      <c r="C91">
         <v>0.009969624655094211</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43220</v>
       </c>
       <c r="B92">
-        <v>1.416409211</v>
-      </c>
-      <c r="C92">
         <v>-0.001459262713950915</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43251</v>
       </c>
       <c r="B93">
-        <v>1.371680233</v>
-      </c>
-      <c r="C93">
         <v>-0.01851051460836373</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43281</v>
       </c>
       <c r="B94">
-        <v>1.397761326</v>
-      </c>
-      <c r="C94">
         <v>0.01099688424986756</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43312</v>
       </c>
       <c r="B95">
-        <v>1.401471392</v>
-      </c>
-      <c r="C95">
         <v>0.001547304128968197</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43343</v>
       </c>
       <c r="B96">
-        <v>1.389686603</v>
-      </c>
-      <c r="C96">
         <v>-0.004907320170150054</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43373</v>
       </c>
       <c r="B97">
-        <v>1.398778811</v>
-      </c>
-      <c r="C97">
         <v>0.003804770043312811</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43404</v>
       </c>
       <c r="B98">
-        <v>1.416084674</v>
-      </c>
-      <c r="C98">
         <v>0.007214447168134352</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43434</v>
       </c>
       <c r="B99">
-        <v>1.405353683</v>
-      </c>
-      <c r="C99">
         <v>-0.004441479686319916</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43465</v>
       </c>
       <c r="B100">
-        <v>1.425101085</v>
-      </c>
-      <c r="C100">
         <v>0.00820977062107997</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43496</v>
       </c>
       <c r="B101">
-        <v>1.477298437</v>
-      </c>
-      <c r="C101">
         <v>0.02152378402816146</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43524</v>
       </c>
       <c r="B102">
-        <v>1.469285888</v>
-      </c>
-      <c r="C102">
         <v>-0.003234389882271649</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43555</v>
       </c>
       <c r="B103">
-        <v>1.466452333</v>
-      </c>
-      <c r="C103">
         <v>-0.001147520023408455</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43585</v>
       </c>
       <c r="B104">
-        <v>1.473767854</v>
-      </c>
-      <c r="C104">
         <v>0.002966009479332676</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43616</v>
       </c>
       <c r="B105">
-        <v>1.487706093</v>
-      </c>
-      <c r="C105">
         <v>0.005634416736987724</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43646</v>
       </c>
       <c r="B106">
-        <v>1.551195053</v>
-      </c>
-      <c r="C106">
         <v>0.0255210855408714</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43677</v>
       </c>
       <c r="B107">
-        <v>1.582077014</v>
-      </c>
-      <c r="C107">
         <v>0.01210490000115261</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43708</v>
       </c>
       <c r="B108">
-        <v>1.601459693</v>
-      </c>
-      <c r="C108">
         <v>0.007506623115773436</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43738</v>
       </c>
       <c r="B109">
-        <v>1.617057135</v>
-      </c>
-      <c r="C109">
         <v>0.005995650073675973</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43769</v>
       </c>
       <c r="B110">
-        <v>1.648532354</v>
-      </c>
-      <c r="C110">
         <v>0.01202695141006171</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43799</v>
       </c>
       <c r="B111">
-        <v>1.629892516</v>
-      </c>
-      <c r="C111">
         <v>-0.007037798866926903</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43830</v>
       </c>
       <c r="B112">
-        <v>1.675902692</v>
-      </c>
-      <c r="C112">
         <v>0.01749507849468324</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43861</v>
       </c>
       <c r="B113">
-        <v>1.680930302</v>
-      </c>
-      <c r="C113">
         <v>0.001878846347824981</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43890</v>
       </c>
       <c r="B114">
-        <v>1.712361964</v>
-      </c>
-      <c r="C114">
         <v>0.01172416230908802</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43921</v>
       </c>
       <c r="B115">
-        <v>1.766754025</v>
-      </c>
-      <c r="C115">
         <v>0.02005339321297162</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43951</v>
       </c>
       <c r="B116">
-        <v>1.815558085</v>
-      </c>
-      <c r="C116">
         <v>0.01763946471533551</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43982</v>
       </c>
       <c r="B117">
-        <v>1.827246513</v>
-      </c>
-      <c r="C117">
         <v>0.004151371645383595</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44012</v>
       </c>
       <c r="B118">
-        <v>1.84514942</v>
-      </c>
-      <c r="C118">
         <v>0.006332276622388777</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>44043</v>
       </c>
       <c r="B119">
-        <v>1.897273467</v>
-      </c>
-      <c r="C119">
         <v>0.01832031971101178</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>44074</v>
       </c>
       <c r="B120">
-        <v>1.910961134</v>
-      </c>
-      <c r="C120">
         <v>0.004724326908006171</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>44104</v>
       </c>
       <c r="B121">
-        <v>1.888865453</v>
-      </c>
-      <c r="C121">
         <v>-0.007590510481889412</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>44135</v>
       </c>
       <c r="B122">
-        <v>1.891826899</v>
-      </c>
-      <c r="C122">
         <v>0.001025124239318442</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44165</v>
       </c>
       <c r="B123">
-        <v>1.884496844</v>
-      </c>
-      <c r="C123">
-        <v>-0.002534748882284332</v>
+        <v>-0.004363547833504011</v>
       </c>
     </row>
   </sheetData>
